--- a/top_päiväkirja_tunnit_2022_20vko.xlsx
+++ b/top_päiväkirja_tunnit_2022_20vko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelli\Downloads\Kodarit\kodarit-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE4176D-75CE-4B51-8A68-FB4734057150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0540C89A-A54C-45AB-B35E-0A7661B186EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP20VKO" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Opiskelija</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">React button onClick count </t>
+  </si>
+  <si>
+    <t>React tic-tac-toe + css</t>
   </si>
 </sst>
 </file>
@@ -446,15 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -466,6 +460,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91985E84-A59F-41F6-9F85-B67676E42B82}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,8 +770,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -777,10 +780,10 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="38"/>
       <c r="E2" t="s">
         <v>17</v>
       </c>
@@ -838,7 +841,7 @@
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -859,7 +862,7 @@
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -880,7 +883,7 @@
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -901,7 +904,7 @@
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -922,7 +925,7 @@
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -943,7 +946,7 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -952,7 +955,7 @@
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="35">
         <v>3</v>
       </c>
     </row>
@@ -964,7 +967,7 @@
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -973,7 +976,7 @@
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="35">
         <v>3</v>
       </c>
     </row>
@@ -985,7 +988,7 @@
       <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="30">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -994,7 +997,7 @@
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="36">
         <v>3</v>
       </c>
     </row>
@@ -1006,7 +1009,7 @@
       <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="31">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1027,7 +1030,7 @@
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1048,10 +1051,18 @@
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="29">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -1061,7 +1072,7 @@
       <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1074,7 +1085,7 @@
       <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1087,7 +1098,7 @@
       <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1100,7 +1111,7 @@
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1113,7 +1124,7 @@
       <c r="B22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1126,7 +1137,7 @@
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1139,7 +1150,7 @@
       <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1152,7 +1163,7 @@
       <c r="B25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1165,7 +1176,7 @@
       <c r="B26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1178,7 +1189,7 @@
       <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1191,7 +1202,7 @@
       <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1204,7 +1215,7 @@
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1217,7 +1228,7 @@
       <c r="B30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1230,7 +1241,7 @@
       <c r="B31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1243,7 +1254,7 @@
       <c r="B32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1256,7 +1267,7 @@
       <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1269,7 +1280,7 @@
       <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1282,7 +1293,7 @@
       <c r="B35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1295,7 +1306,7 @@
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1308,7 +1319,7 @@
       <c r="B37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1321,7 +1332,7 @@
       <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1334,7 +1345,7 @@
       <c r="B39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -1347,7 +1358,7 @@
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1360,7 +1371,7 @@
       <c r="B41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1373,7 +1384,7 @@
       <c r="B42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1386,7 +1397,7 @@
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1399,7 +1410,7 @@
       <c r="B44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -1412,7 +1423,7 @@
       <c r="B45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1425,7 +1436,7 @@
       <c r="B46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1438,7 +1449,7 @@
       <c r="B47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1451,7 +1462,7 @@
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1464,7 +1475,7 @@
       <c r="B49" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -1477,7 +1488,7 @@
       <c r="B50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="34"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1490,7 +1501,7 @@
       <c r="B51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1503,7 +1514,7 @@
       <c r="B52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -1516,7 +1527,7 @@
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -1529,7 +1540,7 @@
       <c r="B54" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="33"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -1542,7 +1553,7 @@
       <c r="B55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="34"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1555,7 +1566,7 @@
       <c r="B56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -1568,7 +1579,7 @@
       <c r="B57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -1581,7 +1592,7 @@
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -1594,7 +1605,7 @@
       <c r="B59" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -1607,7 +1618,7 @@
       <c r="B60" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1620,7 +1631,7 @@
       <c r="B61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="32"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -1633,7 +1644,7 @@
       <c r="B62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="32"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -1646,7 +1657,7 @@
       <c r="B63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="32"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -1659,7 +1670,7 @@
       <c r="B64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="33"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -1672,7 +1683,7 @@
       <c r="B65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="34"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="2"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1685,7 +1696,7 @@
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="32"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -1698,7 +1709,7 @@
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="32"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -1711,7 +1722,7 @@
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="32"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -1724,7 +1735,7 @@
       <c r="B69" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="33"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -1737,7 +1748,7 @@
       <c r="B70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="34"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -1750,7 +1761,7 @@
       <c r="B71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="32"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -1763,7 +1774,7 @@
       <c r="B72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="32"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -1776,7 +1787,7 @@
       <c r="B73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -1789,7 +1800,7 @@
       <c r="B74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -1802,7 +1813,7 @@
       <c r="B75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="34"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -1815,7 +1826,7 @@
       <c r="B76" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -1828,7 +1839,7 @@
       <c r="B77" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -1841,7 +1852,7 @@
       <c r="B78" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="29"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -1854,7 +1865,7 @@
       <c r="B79" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="33"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -1867,7 +1878,7 @@
       <c r="B80" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="34"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -1880,7 +1891,7 @@
       <c r="B81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="32"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -1893,7 +1904,7 @@
       <c r="B82" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="32"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -1906,7 +1917,7 @@
       <c r="B83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="32"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -1919,7 +1930,7 @@
       <c r="B84" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="33"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -1932,7 +1943,7 @@
       <c r="B85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="34"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="2"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -1945,7 +1956,7 @@
       <c r="B86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="32"/>
+      <c r="C86" s="29"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -1958,7 +1969,7 @@
       <c r="B87" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="32"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -1971,7 +1982,7 @@
       <c r="B88" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -1984,7 +1995,7 @@
       <c r="B89" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="33"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -1997,7 +2008,7 @@
       <c r="B90" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="34"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2010,7 +2021,7 @@
       <c r="B91" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="32"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -2023,7 +2034,7 @@
       <c r="B92" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="32"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -2036,7 +2047,7 @@
       <c r="B93" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="32"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -2049,7 +2060,7 @@
       <c r="B94" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -2062,7 +2073,7 @@
       <c r="B95" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="34"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="2"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -2075,7 +2086,7 @@
       <c r="B96" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="32"/>
+      <c r="C96" s="29"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -2088,7 +2099,7 @@
       <c r="B97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="32"/>
+      <c r="C97" s="29"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -2101,7 +2112,7 @@
       <c r="B98" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="32"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -2114,7 +2125,7 @@
       <c r="B99" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="33"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -2127,7 +2138,7 @@
       <c r="B100" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="34"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="2"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -2140,7 +2151,7 @@
       <c r="B101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="32"/>
+      <c r="C101" s="29"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -2153,7 +2164,7 @@
       <c r="B102" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="32"/>
+      <c r="C102" s="29"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -2166,7 +2177,7 @@
       <c r="B103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="32"/>
+      <c r="C103" s="29"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -2179,7 +2190,7 @@
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="33"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -2192,7 +2203,7 @@
       <c r="B105" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="35"/>
+      <c r="C105" s="32"/>
       <c r="D105" s="18"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
@@ -2205,7 +2216,7 @@
       <c r="B106" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="36"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="23"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
@@ -2218,7 +2229,7 @@
       <c r="B107" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="36"/>
+      <c r="C107" s="33"/>
       <c r="D107" s="23"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
@@ -2231,7 +2242,7 @@
       <c r="B108" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="36"/>
+      <c r="C108" s="33"/>
       <c r="D108" s="23"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
@@ -2244,7 +2255,7 @@
       <c r="B109" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="37"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="27"/>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -2255,10 +2266,10 @@
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B113" s="31"/>
+      <c r="B113" s="39"/>
       <c r="D113" t="s">
         <v>16</v>
       </c>
@@ -2275,57 +2286,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <NotebookType xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <Invited_Students xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <FolderType xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <Owner xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Teachers xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <AppVersion xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
-    <Teachers xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E757D0FF7478154F957CA90C622A2CF1" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d73cff251098e01004a98f35d5b3fd37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6801466d-3c2e-4256-af0c-1fa60b25a59a" xmlns:ns4="10ba39b7-188b-4b0f-8f52-e5ae9188c512" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52186d65194efca870c3db091fcfcf3a" ns3:_="" ns4:_="">
     <xsd:import namespace="6801466d-3c2e-4256-af0c-1fa60b25a59a"/>
@@ -2670,10 +2630,72 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <NotebookType xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <Invited_Students xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <FolderType xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <Owner xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Invited_Teachers xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <AppVersion xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512" xsi:nil="true"/>
+    <Teachers xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="10ba39b7-188b-4b0f-8f52-e5ae9188c512">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEA345B0-F36E-4CF8-BDEB-6E48E486E075}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E0491E-913E-45B4-B062-69AED2C92835}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6801466d-3c2e-4256-af0c-1fa60b25a59a"/>
+    <ds:schemaRef ds:uri="10ba39b7-188b-4b0f-8f52-e5ae9188c512"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2696,20 +2718,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E0491E-913E-45B4-B062-69AED2C92835}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEA345B0-F36E-4CF8-BDEB-6E48E486E075}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6801466d-3c2e-4256-af0c-1fa60b25a59a"/>
-    <ds:schemaRef ds:uri="10ba39b7-188b-4b0f-8f52-e5ae9188c512"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>